--- a/B/Just LOL.xlsx
+++ b/B/Just LOL.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946622FE-702A-46C0-955A-9B0CF0AD77A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0DFFB9-7DE8-4387-9413-AF5C44A7D9A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12TH OF JAN 2023" sheetId="1" r:id="rId1"/>
     <sheet name="OTHER EXPENSES" sheetId="2" r:id="rId2"/>
+    <sheet name="JUN 4 2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>DATE</t>
   </si>
@@ -95,9 +96,6 @@
     <t>feed(grower pallet)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>plumbing</t>
   </si>
   <si>
@@ -117,6 +115,30 @@
   </si>
   <si>
     <t>sold 24 crates of egg</t>
+  </si>
+  <si>
+    <t>RECORD FROM 4TH OF JUE 2024</t>
+  </si>
+  <si>
+    <t>DRINKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEDER </t>
+  </si>
+  <si>
+    <t>CHARCOAL</t>
+  </si>
+  <si>
+    <t>FEED(CHICK MASH)</t>
+  </si>
+  <si>
+    <t>carpentry and others</t>
+  </si>
+  <si>
+    <t>Lasota</t>
+  </si>
+  <si>
+    <t>gumboro(500 dose)</t>
   </si>
 </sst>
 </file>
@@ -127,7 +149,7 @@
     <numFmt numFmtId="164" formatCode="_-[$₦-469]\ * #,##0.00_-;\-[$₦-469]\ * #,##0.00_-;_-[$₦-469]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$₦-468]\ * #,##0.00_-;\-[$₦-468]\ * #,##0.00_-;_-[$₦-468]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +187,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -373,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -395,6 +424,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,6 +443,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -687,35 +734,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.2265625" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.31640625" customWidth="1"/>
-    <col min="12" max="12" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.89453125" customWidth="1"/>
+    <col min="2" max="2" width="25.7890625" customWidth="1"/>
+    <col min="3" max="3" width="11.7890625" customWidth="1"/>
+    <col min="4" max="4" width="11.20703125" customWidth="1"/>
+    <col min="5" max="5" width="21.1015625" customWidth="1"/>
+    <col min="7" max="7" width="12.3125" customWidth="1"/>
+    <col min="12" max="12" width="18.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="14"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:7" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -733,7 +780,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>44937</v>
       </c>
@@ -751,7 +798,7 @@
         <v>204350</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -763,11 +810,11 @@
         <v>8700</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E64" si="0">C4 * D4</f>
+        <f t="shared" ref="E4:E33" si="0">C4 * D4</f>
         <v>87000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -783,7 +830,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -799,7 +846,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -815,7 +862,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -831,7 +878,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -846,7 +893,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -862,7 +909,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -878,7 +925,7 @@
         <v>98000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -894,7 +941,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
@@ -910,7 +957,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -926,7 +973,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>45022</v>
       </c>
@@ -944,7 +991,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>45027</v>
       </c>
@@ -962,7 +1009,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>45040</v>
       </c>
@@ -980,7 +1027,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>20</v>
@@ -996,7 +1043,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>45045</v>
       </c>
@@ -1014,7 +1061,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>45053</v>
       </c>
@@ -1032,12 +1079,12 @@
         <v>115200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>45075</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2">
         <v>8</v>
@@ -1050,10 +1097,10 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1066,12 +1113,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>45078</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1084,10 +1131,10 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
         <v>13</v>
@@ -1100,12 +1147,12 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>45095</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>10</v>
@@ -1118,10 +1165,10 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2">
         <v>-15</v>
@@ -1134,12 +1181,12 @@
         <v>-21000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>45110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
@@ -1152,10 +1199,10 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2">
         <v>-24</v>
@@ -1168,7 +1215,7 @@
         <v>-33600</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1178,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1188,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1198,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1208,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1218,650 +1265,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A34" s="6"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A35" s="6"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A36" s="6"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A37" s="6"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A38" s="6"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A39" s="6"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A40" s="6"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A41" s="6"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A42" s="6"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A43" s="6"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A44" s="6"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A45" s="6"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A46" s="6"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A47" s="6"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A48" s="6"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A49" s="6"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A50" s="6"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A51" s="6"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A52" s="6"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A53" s="6"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A54" s="6"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A55" s="6"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A56" s="6"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A57" s="6"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A58" s="6"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A59" s="6"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A60" s="6"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A61" s="6"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A62" s="6"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A63" s="6"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A64" s="6"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A65" s="6"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="5">
-        <f t="shared" ref="E65:E96" si="1">C65 * D65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A66" s="6"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A67" s="6"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A68" s="6"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A69" s="6"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A70" s="6"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A71" s="6"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A72" s="6"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A73" s="6"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A74" s="6"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A75" s="6"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A76" s="6"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A77" s="6"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A78" s="6"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A79" s="6"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A80" s="6"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A81" s="6"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A82" s="6"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A83" s="6"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A84" s="6"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A85" s="6"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A86" s="6"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A87" s="6"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A88" s="6"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A89" s="6"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A90" s="6"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A91" s="6"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A92" s="6"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A93" s="6"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A94" s="6"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A95" s="6"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K95" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A96" s="6"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="9">
-        <f>SUM(E3:E96)</f>
+    <row r="34" spans="1:7" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9">
+        <f>SUM(E3:E33)</f>
         <v>1041850</v>
       </c>
-      <c r="G97" s="15">
-        <f>E97/290</f>
+      <c r="G34" s="15">
+        <f>E34/290</f>
         <v>3592.5862068965516</v>
       </c>
     </row>
@@ -1882,25 +1296,25 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.31640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="13.31640625" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="5" width="21.86328125" customWidth="1"/>
+    <col min="1" max="1" width="13.3125" customWidth="1"/>
+    <col min="2" max="2" width="16.47265625" customWidth="1"/>
+    <col min="3" max="3" width="13.3125" customWidth="1"/>
+    <col min="4" max="4" width="13.83984375" customWidth="1"/>
+    <col min="5" max="5" width="21.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.75">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="18">
         <v>45047</v>
       </c>
@@ -1935,7 +1349,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="18">
         <v>45050</v>
       </c>
@@ -1953,10 +1367,10 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1969,10 +1383,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1985,7 +1399,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1995,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2005,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2015,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2025,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2035,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2045,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2055,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2065,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2075,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2085,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2095,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2105,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2115,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2125,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2135,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2145,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2155,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2165,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2175,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2185,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2195,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2205,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2215,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2225,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2235,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2245,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2255,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2265,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2275,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2285,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2295,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2305,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2315,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2325,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2335,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2345,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2355,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2365,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2375,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2385,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2395,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2405,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2415,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2425,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2435,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2445,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2455,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2465,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2475,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2485,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2495,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2505,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2515,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2525,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2535,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2545,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2555,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2565,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2575,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2585,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2595,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2605,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2615,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2625,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2635,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2645,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2655,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2665,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2675,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2685,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2695,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2705,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2715,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="23.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="80" spans="1:5" ht="23.1" x14ac:dyDescent="0.85">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2723,6 +2137,404 @@
       <c r="E80" s="20">
         <f>SUM(E3:E79)</f>
         <v>281000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CBA131-2871-45BE-9AE5-552EE8F1E6DB}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.5234375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.89453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A3" s="23">
+        <v>45447</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="24">
+        <v>262</v>
+      </c>
+      <c r="D3" s="25">
+        <v>790</v>
+      </c>
+      <c r="E3" s="26">
+        <f>C3 * D3</f>
+        <v>206980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A4" s="27"/>
+      <c r="B4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="26">
+        <f t="shared" ref="E4:E29" si="0">C4 * D4</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="28">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="28">
+        <v>7</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="26">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="28">
+        <v>2</v>
+      </c>
+      <c r="D7" s="28">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="28">
+        <v>2</v>
+      </c>
+      <c r="D8" s="28">
+        <v>13500</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="28">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A10" s="27">
+        <v>45455</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1</v>
+      </c>
+      <c r="D10" s="28">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="28">
+        <v>2</v>
+      </c>
+      <c r="D11" s="28">
+        <v>14500</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A12" s="27">
+        <v>45462</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="28">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29">
+        <f>SUM(E3:E29)</f>
+        <v>296980</v>
       </c>
     </row>
   </sheetData>

--- a/B/Just LOL.xlsx
+++ b/B/Just LOL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0DFFB9-7DE8-4387-9413-AF5C44A7D9A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4C27F-F62C-4528-9DF5-BD079EC8D41C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>DATE</t>
   </si>
@@ -2152,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CBA131-2871-45BE-9AE5-552EE8F1E6DB}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2359,12 +2359,18 @@
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="28">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28">
+        <v>15200</v>
+      </c>
       <c r="E13" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
@@ -2534,7 +2540,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29">
         <f>SUM(E3:E29)</f>
-        <v>296980</v>
+        <v>312180</v>
       </c>
     </row>
   </sheetData>

--- a/B/Just LOL.xlsx
+++ b/B/Just LOL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4C27F-F62C-4528-9DF5-BD079EC8D41C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C39B43-DA9C-4F2E-A3E6-20FFE15296B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2152,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CBA131-2871-45BE-9AE5-552EE8F1E6DB}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2363,14 +2363,14 @@
         <v>35</v>
       </c>
       <c r="C13" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="28">
         <v>15200</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="0"/>
-        <v>15200</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
@@ -2540,7 +2540,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29">
         <f>SUM(E3:E29)</f>
-        <v>312180</v>
+        <v>342580</v>
       </c>
     </row>
   </sheetData>

--- a/B/Just LOL.xlsx
+++ b/B/Just LOL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C39B43-DA9C-4F2E-A3E6-20FFE15296B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E564A4-9998-4740-98E8-0AFF9AD60863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>DATE</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>gumboro(500 dose)</t>
+  </si>
+  <si>
+    <t>fowl pox vaccine</t>
+  </si>
+  <si>
+    <t>FEED(GROWER MASH)</t>
   </si>
 </sst>
 </file>
@@ -2152,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CBA131-2871-45BE-9AE5-552EE8F1E6DB}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2375,42 +2381,68 @@
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="28">
+        <v>2</v>
+      </c>
+      <c r="D14" s="28">
+        <v>16200</v>
+      </c>
       <c r="E14" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="28">
+        <v>8</v>
+      </c>
+      <c r="D15" s="28">
+        <v>17700</v>
+      </c>
       <c r="E15" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141600</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="A16" s="27">
+        <v>45496</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="28">
+        <v>1</v>
+      </c>
+      <c r="D16" s="28">
+        <v>4000</v>
+      </c>
       <c r="E16" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28">
+        <v>17000</v>
+      </c>
       <c r="E17" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
@@ -2540,7 +2572,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29">
         <f>SUM(E3:E29)</f>
-        <v>342580</v>
+        <v>537580</v>
       </c>
     </row>
   </sheetData>

--- a/B/Just LOL.xlsx
+++ b/B/Just LOL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E564A4-9998-4740-98E8-0AFF9AD60863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD87E4F-DAC4-4764-9D4C-DDCC03FC2AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2159,7 +2159,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2435,14 +2435,14 @@
         <v>40</v>
       </c>
       <c r="C17" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="28">
         <v>17000</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="0"/>
-        <v>17000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
@@ -2572,7 +2572,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29">
         <f>SUM(E3:E29)</f>
-        <v>537580</v>
+        <v>554580</v>
       </c>
     </row>
   </sheetData>

--- a/B/Just LOL.xlsx
+++ b/B/Just LOL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD87E4F-DAC4-4764-9D4C-DDCC03FC2AA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A49BFC-13BE-4FE5-9C08-9A9C7CD271B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2159,7 +2159,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2435,14 +2435,14 @@
         <v>40</v>
       </c>
       <c r="C17" s="28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D17" s="28">
         <v>17000</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
@@ -2572,7 +2572,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29">
         <f>SUM(E3:E29)</f>
-        <v>554580</v>
+        <v>724580</v>
       </c>
     </row>
   </sheetData>
